--- a/inst/dados_premissas/2022/consumidores_residenciais_renda.xlsx
+++ b/inst/dados_premissas/2022/consumidores_residenciais_renda.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md\inst\dados_premissas\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5896D97-D00A-4BDD-A28B-0786066B18E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,9 +145,6 @@
     <t>ENEL CE</t>
   </si>
   <si>
-    <t>ENEL GO</t>
-  </si>
-  <si>
     <t>ENEL RJ</t>
   </si>
   <si>
@@ -208,12 +206,15 @@
   </si>
   <si>
     <t>RORAIMA</t>
+  </si>
+  <si>
+    <t>EQUATORIAL GO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,6 +350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -384,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,19 +594,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -629,7 +664,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -658,7 +693,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -687,7 +722,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -716,7 +751,7 @@
         <v>19335</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -745,7 +780,7 @@
         <v>11731</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -774,9 +809,9 @@
         <v>15889</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>1661584</v>
@@ -803,7 +838,7 @@
         <v>5351</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -832,9 +867,9 @@
         <v>48465</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>114651</v>
@@ -861,7 +896,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -890,7 +925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -919,7 +954,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -948,7 +983,7 @@
         <v>19198</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -977,7 +1012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1006,7 +1041,7 @@
         <v>28312</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1070,7 @@
         <v>6027</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1099,7 @@
         <v>28385</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1093,7 +1128,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1151,7 +1186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1180,7 +1215,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1244,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1273,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1267,7 +1302,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1331,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1360,7 @@
         <v>8582</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1354,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1383,7 +1418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1412,7 +1447,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1441,7 +1476,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +1505,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1499,7 +1534,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1528,7 +1563,7 @@
         <v>6332</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1557,7 +1592,7 @@
         <v>6328</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1586,9 +1621,9 @@
         <v>12020</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>1872039</v>
@@ -1615,9 +1650,9 @@
         <v>16003</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>1858874</v>
@@ -1644,9 +1679,9 @@
         <v>14347</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>5152582</v>
@@ -1673,9 +1708,9 @@
         <v>114572</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>61000</v>
@@ -1702,9 +1737,9 @@
         <v>430</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>898290</v>
@@ -1731,9 +1766,9 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>859307</v>
@@ -1760,9 +1795,9 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>1862814</v>
@@ -1789,9 +1824,9 @@
         <v>8135</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>832630</v>
@@ -1818,9 +1853,9 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>451368</v>
@@ -1847,9 +1882,9 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>475458</v>
@@ -1876,9 +1911,9 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>539592</v>
@@ -1905,9 +1940,9 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>401745</v>
@@ -1934,9 +1969,9 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>5342</v>
@@ -1963,9 +1998,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>15576</v>
@@ -1992,9 +2027,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>3136483</v>
@@ -2021,9 +2056,9 @@
         <v>60626</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>8386</v>
@@ -2050,9 +2085,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>24654</v>
@@ -2079,9 +2114,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>1985410</v>
@@ -2108,9 +2143,9 @@
         <v>11855</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>89489</v>
@@ -2137,9 +2172,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>9517</v>
